--- a/excelTools/testData/sample.xlsx
+++ b/excelTools/testData/sample.xlsx
@@ -502,24 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,140 +641,164 @@
       <c r="G26" s="7"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="28" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C29" s="1" t="s">
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="CTT+7Np/tezd0r11V33sHU1dmdgAQreMjulxwM9bN9i2ca23UEQR7OzID88Zl7y2MIjZ7R9S3GFqK9bnMX7yxw==" saltValue="g0y7p/hIQmTBujLToYpbgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:E6"/>
+    <mergeCell ref="G2:H12"/>
+    <mergeCell ref="C16:E20"/>
+    <mergeCell ref="G16:H26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="G29" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G37" s="4"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G39" s="7"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="42" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C43" s="1" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="7"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="15" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="G43" s="1" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G48" s="4"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G49" s="4"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G50" s="4"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G51" s="4"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G52" s="4"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="7:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G53" s="7"/>
-      <c r="H53" s="9"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G25" s="4"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="7"/>
+      <c r="H26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C29:E33"/>
-    <mergeCell ref="G29:H39"/>
-    <mergeCell ref="C43:E47"/>
-    <mergeCell ref="G43:H53"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q3Ef7bpdkKSacsSvMubNJ3KN1fus26ByWQ4RaYGYruvEo2ky6MQNZwL29yyUsyV7WiddFPduQsZiumWgD8cieg==" saltValue="M4oP2/a6f1hLSFOM1FaHIA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="4">
     <mergeCell ref="C2:E6"/>
     <mergeCell ref="G2:H12"/>
     <mergeCell ref="C16:E20"/>
